--- a/corporation_excel/you/2024.xlsx
+++ b/corporation_excel/you/2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,15 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -49,6 +56,9 @@
   <si>
     <t>r</t>
   </si>
+  <si>
+    <t>check_time</t>
+  </si>
 </sst>
 </file>
 
@@ -180,17 +190,16 @@
       <color theme="0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
+      <i/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
   <fills count="33">
@@ -424,7 +433,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -433,7 +441,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -442,7 +449,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -451,7 +457,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -466,7 +471,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -481,7 +485,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -496,7 +499,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -505,7 +507,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -516,7 +517,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -595,10 +595,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -607,10 +607,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -619,10 +619,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -631,10 +631,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -643,10 +643,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -655,23 +655,60 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1013,26 +1050,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1044,26 +1084,29 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1075,26 +1118,29 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1106,15 +1152,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
+  <cols>
+    <col min="5" max="5" width="11.75500011" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1127,98 +1176,8 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1229,28 +1188,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1260,28 +1222,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1291,28 +1256,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1322,28 +1325,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1353,28 +1359,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.500000">
+      <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
